--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-01T17:09:55-05:00</t>
+    <t>2021-11-08T08:32:25-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T08:32:25-06:00</t>
+    <t>2021-11-08T19:10:05-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5214" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5216" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentLists.Audit.Responder</t>
+    <t>https://profiles.ihe.net/ITI/MHD/StructureDefinition/IHE.MHD.FindDocumentLists.Audit.Responder</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-08T19:10:05-06:00</t>
+    <t>2022-02-27T12:38:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Integrating the Healthcare Enterprise (IHE)</t>
+    <t>IHE IT Infrastructure Technical Committee</t>
   </si>
   <si>
     <t>Contact</t>
@@ -1767,7 +1767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1865,79 +1865,87 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B22" t="s" s="2">
         <v>37</v>
       </c>
     </row>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-27T12:38:24-06:00</t>
+    <t>2022-02-28T20:12:01-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T11:05:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -2634,17 +2634,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.4609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.34765625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2653,28 +2653,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.44921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="46.140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.00390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="139.34765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.29296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="30.86328125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="35.875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12903,7 +12903,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>422</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>425</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>437</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>438</v>
       </c>
@@ -25917,12 +25917,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP193">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
+++ b/ITI/MHD/StructureDefinition-IHE.MHD.FindDocumentLists.Audit.Responder.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.2.2</t>
+    <t>4.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T12:39:23-05:00</t>
+    <t>2025-10-31T14:38:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -388,7 +388,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -513,7 +513,7 @@
     <t>Type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -549,7 +549,7 @@
     <t>Sub-type of event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-event-sub-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -781,7 +781,7 @@
     <t>An agent can be a person, an organization, software, device, or other actors that may be ascribed responsibility.</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:type}
+    <t xml:space="preserve">value:type}
 </t>
   </si>
   <si>
@@ -859,7 +859,7 @@
     <t>The Participation type of the agent to the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participation-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/participation-role-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -898,7 +898,7 @@
     <t>What security role enabled the agent to participate in the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-role-type</t>
+    <t>http://hl7.org/fhir/ValueSet/security-role-type|4.0.1</t>
   </si>
   <si>
     <t>.role</t>
@@ -914,7 +914,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(PractitionerRole|Practitioner|Organization|Device|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(PractitionerRole|4.0.1|Practitioner|4.0.1|Organization|4.0.1|Device|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1009,7 +1009,7 @@
     <t>AuditEvent.agent.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1076,7 +1076,7 @@
     <t>Used when the event is about exporting/importing onto media.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype</t>
+    <t>http://hl7.org/fhir/ValueSet/dicm-405-mediatype|4.0.1</t>
   </si>
   <si>
     <t>.player.description.mediaType</t>
@@ -1482,7 +1482,7 @@
     <t>Code specifying the type of system that detected and recorded the event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-source-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-source-type|4.0.1</t>
   </si>
   <si>
     <t>.code</t>
@@ -1538,7 +1538,7 @@
     <t>AuditEvent.entity.what</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1572,7 +1572,7 @@
     <t>Code for the entity type involved in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/audit-entity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/audit-entity-type|4.0.1</t>
   </si>
   <si>
     <t>[self::Act].code or role.player.code</t>
@@ -1602,7 +1602,7 @@
     <t>Code representing the role the entity played in the audit event.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-role</t>
+    <t>http://hl7.org/fhir/ValueSet/object-role|4.0.1</t>
   </si>
   <si>
     <t>role.code (not sure what this would mean for an Act)</t>
@@ -1632,7 +1632,7 @@
     <t>Institutional policies for privacy and security may optionally fall under different accountability rules based on data life cycle. This provides a differentiating value for those cases.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events</t>
+    <t>http://hl7.org/fhir/ValueSet/object-lifecycle-events|4.0.1</t>
   </si>
   <si>
     <t>target of ObservationEvent[code="lifecycle"].value</t>
@@ -1662,7 +1662,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>.confidentialityCode</t>
@@ -1881,7 +1881,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1978,7 +1978,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -2059,7 +2059,7 @@
     <t>AuditEvent.entity.what.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2634,17 +2634,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.49609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="41.4609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.15234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="45.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.18359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.00390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="78.44140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.77734375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2653,28 +2653,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.44921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="47.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="49.390625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="40.00390625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="139.34765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="44.29296875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="30.86328125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="35.875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12903,7 +12903,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
         <v>422</v>
       </c>
@@ -13267,7 +13267,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>425</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>437</v>
       </c>
@@ -14709,7 +14709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>438</v>
       </c>
@@ -25917,12 +25917,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP193">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
